--- a/Results/Sharpe_SBM.xlsx
+++ b/Results/Sharpe_SBM.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="16">
   <si>
     <t>Row</t>
   </si>
@@ -46,6 +46,21 @@
   </si>
   <si>
     <t>Big</t>
+  </si>
+  <si>
+    <t>OP1</t>
+  </si>
+  <si>
+    <t>OP2</t>
+  </si>
+  <si>
+    <t>OP3</t>
+  </si>
+  <si>
+    <t>OP4</t>
+  </si>
+  <si>
+    <t>OP5</t>
   </si>
 </sst>
 </file>
@@ -66,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="81">
     <border>
       <left/>
       <right/>
@@ -98,11 +113,67 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -128,6 +199,62 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,7 +267,7 @@
   <dimension ref="D1:I6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="4.7265625" customWidth="true"/>
+    <col min="4" max="4" width="4.54296875" customWidth="true"/>
     <col min="5" max="5" width="13.453125" customWidth="true"/>
     <col min="6" max="6" width="13.453125" customWidth="true"/>
     <col min="7" max="7" width="13.453125" customWidth="true"/>
@@ -149,28 +276,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="79" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" s="23" t="s">
-        <v>1</v>
+      <c r="D2" s="79" t="s">
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0.071746052012333653</v>
@@ -189,8 +316,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="D3" s="23" t="s">
-        <v>2</v>
+      <c r="D3" s="79" t="s">
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0.15754929809046719</v>
@@ -209,8 +336,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="D4" s="23" t="s">
-        <v>3</v>
+      <c r="D4" s="79" t="s">
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0.15129232698633854</v>
@@ -229,8 +356,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="23" t="s">
-        <v>4</v>
+      <c r="D5" s="79" t="s">
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0.16292097506246694</v>
@@ -249,8 +376,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="D6" s="23" t="s">
-        <v>5</v>
+      <c r="D6" s="79" t="s">
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0.12039181097225392</v>
